--- a/Bence/Tablak.xlsx
+++ b/Bence/Tablak.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
-    <t>Forma1</t>
-  </si>
-  <si>
     <t>Versenyzők</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Pályák</t>
+  </si>
+  <si>
+    <t>Forma_1</t>
   </si>
 </sst>
 </file>
@@ -407,9 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -420,91 +418,91 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
